--- a/Summary_Zeta(s)_Im(s)=0.xlsx
+++ b/Summary_Zeta(s)_Im(s)=0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B491CC4C-7053-4345-AEDE-E09C5153BC9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511C0D6-A9DA-45E7-AF9F-FA93885A368E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>s</t>
   </si>
@@ -190,6 +190,15 @@
       </rPr>
       <t>see https://github.com/HVoellinger/Mathematics)  we show the graph of zeta(s) where Im(s)=0, s.t. s=real mumber (without s=1).                                                                                                                                                                                                                                                      We use the calculated values of zeta(s) for this special s and summaries them in a small table (see below). we see a pole of zeta(s) at s=1 and an asymtote at f(s)=1 for s&gt;1. Compare also the remarks about the lim(zeta(s)) for s goes to positive infinity: lim(s-&gt;+inf)](zeta(s))=1.</t>
     </r>
+  </si>
+  <si>
+    <t>1/120</t>
+  </si>
+  <si>
+    <t>-1/252</t>
+  </si>
+  <si>
+    <t>1/240</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -382,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,34 +893,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="4" spans="2:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -930,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52773BCF-0949-437C-9036-AEDA10A4D811}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,21 +952,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -974,7 +980,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>-8</v>
       </c>
@@ -986,7 +992,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>-7.5</v>
       </c>
@@ -996,34 +1002,36 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>-7</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>-6.5</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4">
         <v>-6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1034,14 +1042,14 @@
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="D9" s="19"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -1050,14 +1058,16 @@
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="D10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -1066,14 +1076,14 @@
       <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="D11" s="21"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
@@ -1082,16 +1092,16 @@
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -1100,14 +1110,14 @@
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="D13" s="19"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
@@ -1116,14 +1126,16 @@
       <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
@@ -1132,14 +1144,14 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="D15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -1151,13 +1163,13 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -1167,13 +1179,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -1185,13 +1197,13 @@
       <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -1201,13 +1213,13 @@
         <v>12</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
@@ -1219,13 +1231,13 @@
       <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
@@ -1235,13 +1247,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
@@ -1250,16 +1262,16 @@
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
@@ -1269,13 +1281,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -1447,16 +1459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -1510,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A75C752-6FF5-4E80-BF1D-F5F8A970C121}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,814 +1540,820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="15"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17">
         <v>-8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17">
         <v>-7.5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17">
         <v>-7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="D6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17">
         <v>-6.5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17">
         <v>-6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17">
         <v>-5.5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17">
         <v>-5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="D10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17">
         <v>-4.5</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17">
         <v>-4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17">
         <v>-3.5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17">
         <v>-3</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17">
         <v>-2.5</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17">
         <v>-2</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17">
         <v>-1.5</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17">
         <v>-1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17">
         <v>-0.5</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17">
         <v>0</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17">
         <v>0.5</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17">
         <v>1.5</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17">
         <v>2</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17">
         <v>2.5</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="18">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17">
         <v>3</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18">
+      <c r="A27" s="14"/>
+      <c r="B27" s="17">
         <v>3.5</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17">
         <v>4</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17">
         <v>4.5</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17">
         <v>5</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17">
         <v>5.5</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="18">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17">
         <v>6</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18">
+      <c r="A33" s="14"/>
+      <c r="B33" s="17">
         <v>6.5</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="18">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17">
         <v>7</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17">
         <v>7.5</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17">
         <v>8</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>

--- a/Summary_Zeta(s)_Im(s)=0.xlsx
+++ b/Summary_Zeta(s)_Im(s)=0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46538A30-6770-409A-AA10-466C01C01B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72910122-C46A-41AB-AD4F-A2AA518B4D46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>s</t>
   </si>
@@ -201,25 +201,7 @@
     <t>1/240</t>
   </si>
   <si>
-    <t>zeta(s) with (RFE)</t>
-  </si>
-  <si>
     <t>Pole</t>
-  </si>
-  <si>
-    <r>
-      <t>-1/12=0.08333…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>---&gt;  Rouding Error</t>
-    </r>
   </si>
   <si>
     <r>
@@ -275,6 +257,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Calculation of zetas(s) with (cRZ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rounding errors may occur in proc. (cRZ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>1/120 = 0.008333...</t>
     </r>
     <r>
@@ -287,21 +284,57 @@
       </rPr>
       <t>----&gt; Rounding</t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Calculation of zetas(s) with (cRZ) </t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rounding errors may occur in proc. (cRZ)</t>
+      <t>E.</t>
     </r>
+  </si>
+  <si>
+    <t>Exact result: zeta(s) with (RFE) or
+with WolframAlpha tool</t>
+  </si>
+  <si>
+    <r>
+      <t>-1/12=0.08333…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---&gt;  Rounding Error</t>
+    </r>
+  </si>
+  <si>
+    <t>(pi²)²/90=1.082323232347…</t>
+  </si>
+  <si>
+    <t>Pi²/6=1.6449340668….</t>
+  </si>
+  <si>
+    <t>(pi²)³/945=1.0173430619844…</t>
+  </si>
+  <si>
+    <t>((pi²)²)²/9450=1.004077356197944…</t>
   </si>
 </sst>
 </file>
@@ -417,7 +450,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,9 +574,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -564,6 +588,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -587,8 +614,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52773BCF-0949-437C-9036-AEDA10A4D811}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,14 +1112,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>50</v>
+      <c r="C2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1110,7 +1140,7 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -1119,8 +1149,8 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>54</v>
+      <c r="D5" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1130,7 +1160,7 @@
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -1150,7 +1180,7 @@
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1167,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1184,7 +1214,7 @@
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="27"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1218,7 +1248,7 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1235,9 +1265,9 @@
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="39"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1252,7 +1282,7 @@
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -1303,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -1333,11 +1363,11 @@
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1371,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1405,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1443,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -1484,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -1524,27 +1554,27 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
